--- a/schedule-4-10-2023.xlsx
+++ b/schedule-4-10-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\sensem2\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02CE9DD-A333-42C3-A410-886137779B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC02F03-AA1C-45DF-B67B-B213FB999F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,6 +566,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -577,9 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,7 +926,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,10 +1294,10 @@
         <f t="shared" si="2"/>
         <v>44999</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
@@ -1311,8 +1311,8 @@
         <f t="shared" si="2"/>
         <v>45002</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="17"/>
       <c r="G17" s="8"/>
     </row>
@@ -1469,7 +1469,7 @@
       <c r="D24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="28" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -1512,7 +1512,7 @@
       <c r="D26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="28" t="s">
         <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -1550,7 +1550,7 @@
       <c r="D28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="28" t="s">
         <v>94</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -1655,7 +1655,7 @@
       <c r="D33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="28" t="s">
         <v>95</v>
       </c>
       <c r="F33" s="7" t="s">
